--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Temperature (F)</t>
   </si>
 </sst>
 </file>
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,25 +351,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42752</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,6 +383,14 @@
         <v>66</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42753</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>Utah</t>
   </si>
 </sst>
 </file>
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,25 +351,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42752</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -29,10 +29,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>Utah</t>
   </si>
   <si>
-    <t>Utah</t>
+    <t xml:space="preserve">Temperature </t>
   </si>
 </sst>
 </file>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +364,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -372,7 +372,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -381,6 +381,14 @@
       </c>
       <c r="B3">
         <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42753</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -29,10 +29,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Utah</t>
+    <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t xml:space="preserve">Temperature </t>
+    <t>Atlantis</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +364,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -372,7 +372,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -380,7 +380,7 @@
         <v>42752</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>42752</v>
       </c>
       <c r="B3">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -29,10 +29,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Utah</t>
+    <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t xml:space="preserve">Temperature </t>
+    <t>Star City</t>
   </si>
 </sst>
 </file>
@@ -353,9 +353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -364,7 +362,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -372,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -353,7 +353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -386,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t>Atlantis</t>
+    <t>Gondor</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>42752</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t>Atlantis</t>
+    <t>Hogwarts</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>42752</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>42752</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t>Hogwarts</t>
+    <t>Mordor</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
         <v>42752</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>-12</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>-12</v>
+        <v>-28</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t>Hogwarts</t>
+    <t>Rohan</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>42752</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>42753</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
